--- a/학습자료/단답형/국어_기출의지혜_고유어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_고유어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,184 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>명지바람</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>살바람</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>높새바람</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
+2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>만수받이</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>윤똑똑이</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>트레바리</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>오그랑이</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_기출의지혜_고유어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_고유어.xlsx
@@ -573,12 +573,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>보드랍고 화창한 바람</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>명지바람</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>보드랍고 화창한 바람</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -595,12 +595,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>하늬바람</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>서쪽에서 부는 바람</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -617,12 +617,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>살바람</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -639,12 +639,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>높새바람</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
